--- a/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.1021314065745713</v>
+        <v>-2.1021314122226329</v>
       </c>
       <c r="C2">
-        <v>-5.8508278854994273</v>
+        <v>-5.8508278506921556</v>
       </c>
       <c r="D2">
-        <v>-4.6964519917954988</v>
+        <v>-4.6964519884246556</v>
       </c>
       <c r="E2">
-        <v>-7.9813289185884457</v>
+        <v>-7.9813288989603564</v>
       </c>
       <c r="F2">
-        <v>-18.177695657422476</v>
+        <v>-18.177695646631634</v>
       </c>
       <c r="G2">
-        <v>9.0909347124058684</v>
+        <v>9.0909347674359822</v>
       </c>
       <c r="H2">
-        <v>-5.471815943650995</v>
+        <v>-5.4718159295994013</v>
       </c>
       <c r="I2">
-        <v>6.6655891397200548</v>
+        <v>6.6655891564079752</v>
       </c>
       <c r="J2">
-        <v>3.4837363962776209</v>
+        <v>3.4837364466838352</v>
       </c>
       <c r="K2">
-        <v>-15.455135481851428</v>
+        <v>-15.455135484532079</v>
       </c>
       <c r="L2">
-        <v>5.5098783384513155</v>
+        <v>5.5098783295681244</v>
       </c>
       <c r="M2">
-        <v>-2.6220358531500949</v>
+        <v>-2.6220358398703354</v>
       </c>
       <c r="N2">
-        <v>-0.44052238549392086</v>
+        <v>-0.44052237101996639</v>
       </c>
       <c r="O2">
-        <v>12.010487496953644</v>
+        <v>12.010487506750238</v>
       </c>
       <c r="P2">
-        <v>-2.4083244232698462</v>
+        <v>-2.4083243640580747</v>
       </c>
       <c r="Q2">
-        <v>-4.4286046749950287</v>
+        <v>-4.4286046332825322</v>
       </c>
       <c r="R2">
-        <v>-1.6055091850088274</v>
+        <v>-1.6055091433320001</v>
       </c>
       <c r="S2">
-        <v>6.8576565571727883</v>
+        <v>6.8576565737894839</v>
       </c>
       <c r="T2">
-        <v>-8.298921212488068</v>
+        <v>-8.2989211897770474</v>
       </c>
       <c r="U2">
-        <v>7.0240267038331439</v>
+        <v>7.0240266983633717</v>
       </c>
       <c r="V2">
-        <v>-9.4640594904967372</v>
+        <v>-9.4640594822461424</v>
       </c>
       <c r="W2">
-        <v>14.157989172086303</v>
+        <v>14.157989222756015</v>
       </c>
       <c r="X2">
-        <v>-2.2350058278755398</v>
+        <v>-2.235005779089164</v>
       </c>
       <c r="Y2">
-        <v>-3.1655619962337482</v>
+        <v>-3.1655620085032297</v>
       </c>
       <c r="Z2">
-        <v>-24.052315654189428</v>
+        <v>-24.052315655852084</v>
       </c>
       <c r="AA2">
-        <v>8.8888465457147987</v>
+        <v>8.8888465734912359</v>
       </c>
       <c r="AB2">
-        <v>-5.3223885479066269</v>
+        <v>-5.3223885090244067</v>
       </c>
       <c r="AC2">
-        <v>5.5674086580340827</v>
+        <v>5.5674086851646933</v>
       </c>
       <c r="AD2">
-        <v>-10.414828218955023</v>
+        <v>-10.414828222797183</v>
       </c>
       <c r="AE2">
-        <v>-35.343408219552714</v>
+        <v>-35.343408198054419</v>
       </c>
       <c r="AF2">
-        <v>-3.5830941161042063</v>
+        <v>-3.5830940910310005</v>
       </c>
       <c r="AG2">
-        <v>0.98763558477568836</v>
+        <v>0.98763558326641032</v>
       </c>
       <c r="AH2">
-        <v>-2.0129343234435026</v>
+        <v>-2.0129343084841906</v>
       </c>
       <c r="AI2">
-        <v>37.179216671812355</v>
+        <v>37.179216677509643</v>
       </c>
       <c r="AJ2">
-        <v>-2.881151270520192</v>
+        <v>-2.8811512602735121</v>
       </c>
       <c r="AK2">
-        <v>-0.42548145761057299</v>
+        <v>-0.42548146606563364</v>
       </c>
       <c r="AL2">
-        <v>-9.8273868675558447</v>
+        <v>-9.827386873399746</v>
       </c>
       <c r="AM2">
-        <v>-0.2500942546161582</v>
+        <v>-0.25009425925853179</v>
       </c>
       <c r="AN2">
-        <v>0.26728541845810128</v>
+        <v>0.26728541516979476</v>
       </c>
       <c r="AO2">
-        <v>-8.5986391487804781</v>
+        <v>-8.5986391266756073</v>
       </c>
       <c r="AP2">
-        <v>1.5510289584985628</v>
+        <v>1.5510289846036756</v>
       </c>
       <c r="AQ2">
-        <v>-0.59603676001916028</v>
+        <v>-0.59603673257529977</v>
       </c>
       <c r="AR2">
-        <v>1.1216735641274624</v>
+        <v>1.1216735649002203</v>
       </c>
       <c r="AS2">
-        <v>-1.4724406941455186</v>
+        <v>-1.4724406700497923</v>
       </c>
       <c r="AT2">
-        <v>-1.9207207371514414</v>
+        <v>-1.9207207134182624</v>
       </c>
       <c r="AU2">
-        <v>1.124612803140792</v>
+        <v>1.1246128177010917</v>
       </c>
       <c r="AV2">
-        <v>-3.8103784443716222</v>
+        <v>-3.8103783803941269</v>
       </c>
       <c r="AW2">
-        <v>-2.2497333434361764</v>
+        <v>-2.2497332967570145</v>
       </c>
       <c r="AX2">
-        <v>-6.5179970136713621</v>
+        <v>-6.5179970050056113</v>
       </c>
       <c r="AY2">
-        <v>3.0446443314650509</v>
+        <v>3.0446443392689559</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4913575739517313</v>
+        <v>3.4913575835002035</v>
       </c>
       <c r="C3">
-        <v>-0.99955520084145633</v>
+        <v>-0.99955521713050643</v>
       </c>
       <c r="D3">
-        <v>-0.50389196471653008</v>
+        <v>-0.50389192611379485</v>
       </c>
       <c r="E3">
-        <v>-19.99629082835412</v>
+        <v>-19.996290831750002</v>
       </c>
       <c r="F3">
-        <v>7.1264394940656075</v>
+        <v>7.1264395033189487</v>
       </c>
       <c r="G3">
-        <v>0.37500756015006687</v>
+        <v>0.37500755377121209</v>
       </c>
       <c r="H3">
-        <v>2.0812040918766002</v>
+        <v>2.0812041311191507</v>
       </c>
       <c r="I3">
-        <v>1.2404370308866817</v>
+        <v>1.2404369999167386</v>
       </c>
       <c r="J3">
-        <v>-0.616811866820143</v>
+        <v>-0.6168118610554103</v>
       </c>
       <c r="K3">
-        <v>29.044096429012129</v>
+        <v>29.04409643144173</v>
       </c>
       <c r="L3">
-        <v>25.062559781387719</v>
+        <v>25.062559779431524</v>
       </c>
       <c r="M3">
-        <v>-4.9239999490361583</v>
+        <v>-4.9242917990463866</v>
       </c>
       <c r="N3">
-        <v>-0.56162115472957908</v>
+        <v>-0.56162115703355653</v>
       </c>
       <c r="O3">
-        <v>3.4386750783412765</v>
+        <v>3.4386750814914819</v>
       </c>
       <c r="P3">
-        <v>-33.066828729606982</v>
+        <v>-33.066828711014551</v>
       </c>
       <c r="Q3">
-        <v>-5.1904993841208125</v>
+        <v>-5.1904993601579577</v>
       </c>
       <c r="R3">
-        <v>6.8764092216177914</v>
+        <v>6.8764092646110839</v>
       </c>
       <c r="S3">
-        <v>7.9915298277734337</v>
+        <v>7.9915298309595357</v>
       </c>
       <c r="T3">
-        <v>8.7356225733466317</v>
+        <v>8.7356225698111132</v>
       </c>
       <c r="U3">
-        <v>-5.6781800429966722</v>
+        <v>-5.6781800430223512</v>
       </c>
       <c r="V3">
-        <v>8.6004094450115076</v>
+        <v>8.6004094504897068</v>
       </c>
       <c r="W3">
-        <v>0.98138554442434156</v>
+        <v>0.98138551001120788</v>
       </c>
       <c r="X3">
-        <v>10.782317408887025</v>
+        <v>10.78231737665601</v>
       </c>
       <c r="Y3">
-        <v>6.0347601290381476</v>
+        <v>6.0347601596918992</v>
       </c>
       <c r="Z3">
-        <v>-6.5515277635203972</v>
+        <v>-6.5515277523750228</v>
       </c>
       <c r="AA3">
-        <v>-0.57596138406333353</v>
+        <v>-0.57596131708601206</v>
       </c>
       <c r="AB3">
-        <v>-3.2928027409331264</v>
+        <v>-3.292802716405987</v>
       </c>
       <c r="AC3">
-        <v>1.0414123007899718</v>
+        <v>1.0414123153460082</v>
       </c>
       <c r="AD3">
-        <v>-14.715513207854514</v>
+        <v>-14.71551317520553</v>
       </c>
       <c r="AE3">
-        <v>-5.9717333498034009</v>
+        <v>-5.9717333218568456</v>
       </c>
       <c r="AF3">
-        <v>0.12630160950013192</v>
+        <v>0.12630160285198144</v>
       </c>
       <c r="AG3">
-        <v>10.335150013764704</v>
+        <v>10.335150031506643</v>
       </c>
       <c r="AH3">
-        <v>8.0257222965033179</v>
+        <v>8.0257223271039493</v>
       </c>
       <c r="AI3">
-        <v>-2.1952718363827728</v>
+        <v>-2.1952718406954261</v>
       </c>
       <c r="AJ3">
-        <v>-0.15410909155374952</v>
+        <v>-0.15410909881804002</v>
       </c>
       <c r="AK3">
-        <v>20.754553781360755</v>
+        <v>20.754553769577967</v>
       </c>
       <c r="AL3">
-        <v>-1.215465797175284</v>
+        <v>-1.2154657690822432</v>
       </c>
       <c r="AM3">
-        <v>-1.4911763008161643</v>
+        <v>-1.4911762848005026</v>
       </c>
       <c r="AN3">
-        <v>2.8797395471411562</v>
+        <v>2.8797395374138546</v>
       </c>
       <c r="AO3">
-        <v>19.983442728626699</v>
+        <v>19.983442748548327</v>
       </c>
       <c r="AP3">
-        <v>-10.665986435458564</v>
+        <v>-10.665986425075459</v>
       </c>
       <c r="AQ3">
-        <v>-2.9060115588442272</v>
+        <v>-2.9060115189314217</v>
       </c>
       <c r="AR3">
-        <v>-3.0253811626089799</v>
+        <v>-3.0253811765086454</v>
       </c>
       <c r="AS3">
-        <v>1.8466122775344331</v>
+        <v>1.8466122918931092</v>
       </c>
       <c r="AT3">
-        <v>-3.4123726137873831</v>
+        <v>-3.4123726008787827</v>
       </c>
       <c r="AU3">
-        <v>-1.0076190487337158</v>
+        <v>-1.0076190490287615</v>
       </c>
       <c r="AV3">
-        <v>-1.431482497485888</v>
+        <v>-1.4314824786025184</v>
       </c>
       <c r="AW3">
-        <v>-5.1833345043710892</v>
+        <v>-5.1833344902819078</v>
       </c>
       <c r="AX3">
-        <v>-35.789638573941431</v>
+        <v>-35.789638553170903</v>
       </c>
       <c r="AY3">
-        <v>-19.646467793910801</v>
+        <v>-19.646467785004944</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-2.1021314122226329</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-5.8508278506921556</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-4.6964519884246556</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.9813288989603564</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-18.177695646631634</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.0909347674359822</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.4718159295994013</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.6655891564079752</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.4837364466838352</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-15.455135484532079</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.5098783295681244</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-2.6220358398703354</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.44052237101996639</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.010487506750238</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-2.4083243640580747</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-4.4286046332825322</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.6055091433320001</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.8576565737894839</v>
+        <v>6.8577232337894998</v>
       </c>
       <c r="T2">
-        <v>-8.2989211897770474</v>
+        <v>-8.2988878597770395</v>
       </c>
       <c r="U2">
-        <v>7.0240266983633717</v>
+        <v>7.0240600283633796</v>
       </c>
       <c r="V2">
-        <v>-9.4640594822461424</v>
+        <v>-9.4640261522461628</v>
       </c>
       <c r="W2">
-        <v>14.157989222756015</v>
+        <v>14.158055882756003</v>
       </c>
       <c r="X2">
-        <v>-2.235005779089164</v>
+        <v>-2.2350724390891799</v>
       </c>
       <c r="Y2">
-        <v>-3.1655620085032297</v>
+        <v>-3.1655953385032376</v>
       </c>
       <c r="Z2">
-        <v>-24.052315655852084</v>
+        <v>-24.0523823158521</v>
       </c>
       <c r="AA2">
-        <v>8.8888465734912359</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-5.3223885090244067</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.5674086851646933</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-10.414828222797183</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-35.343408198054419</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-3.5830940910310005</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.98763558326641032</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-2.0129343084841906</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>37.179216677509643</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-2.8811512602735121</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.42548146606563364</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-9.827386873399746</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.25009425925853179</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.26728541516979476</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.5986391266756073</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5510289846036756</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.59603673257529977</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.1216735649002203</v>
       </c>
       <c r="AS2">
-        <v>-1.4724406700497923</v>
+        <v>-1.4724073400497844</v>
       </c>
       <c r="AT2">
-        <v>-1.9207207134182624</v>
+        <v>-1.9206873834182545</v>
       </c>
       <c r="AU2">
         <v>1.1246128177010917</v>
       </c>
       <c r="AV2">
-        <v>-3.8103783803941269</v>
+        <v>-3.8103450503941474</v>
       </c>
       <c r="AW2">
-        <v>-2.2497332967570145</v>
+        <v>-2.2497999567570304</v>
       </c>
       <c r="AX2">
-        <v>-6.5179970050056113</v>
+        <v>-6.5180636650055988</v>
       </c>
       <c r="AY2">
-        <v>3.0446443392689559</v>
+        <v>3.0446110092689622</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.4913575835002035</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.99955521713050643</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.50389192611379485</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-19.996290831750002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.1264395033189487</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.37500755377121209</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.0812041311191507</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2404369999167386</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.6168118610554103</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.04409643144173</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25.062559779431524</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-4.9242917990463866</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.56162115703355653</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.4386750814914819</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-33.066828711014551</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-5.1904993601579577</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.8764092646110839</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.9915298309595357</v>
       </c>
       <c r="T3">
-        <v>8.7356225698111132</v>
+        <v>8.7356558998111211</v>
       </c>
       <c r="U3">
-        <v>-5.6781800430223512</v>
+        <v>-5.6781467130223433</v>
       </c>
       <c r="V3">
-        <v>8.6004094504897068</v>
+        <v>8.6004094504896784</v>
       </c>
       <c r="W3">
-        <v>0.98138551001120788</v>
+        <v>0.9813855100112221</v>
       </c>
       <c r="X3">
-        <v>10.78231737665601</v>
+        <v>10.782384036656012</v>
       </c>
       <c r="Y3">
-        <v>6.0347601596918992</v>
+        <v>32.064760159691915</v>
       </c>
       <c r="Z3">
-        <v>-6.5515277523750228</v>
+        <v>-1.1081944123750276</v>
       </c>
       <c r="AA3">
-        <v>-0.57596131708601206</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-3.292802716405987</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.0414123153460082</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-14.71551317520553</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-5.9717333218568456</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.12630160285198144</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.335150031506643</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.0257223271039493</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-2.1952718406954261</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.15410909881804002</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>20.754553769577967</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-1.2154657690822432</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.4911762848005026</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.8797395374138546</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>19.983442748548327</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-10.665986425075459</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-2.9060115189314217</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-3.0253811765086454</v>
+        <v>-3.0253145165086721</v>
       </c>
       <c r="AS3">
-        <v>1.8466122918931092</v>
+        <v>1.8465789618931012</v>
       </c>
       <c r="AT3">
-        <v>-3.4123726008787827</v>
+        <v>-3.4123392708787748</v>
       </c>
       <c r="AU3">
         <v>-1.0076190490287615</v>
       </c>
       <c r="AV3">
-        <v>-1.4314824786025184</v>
+        <v>-1.4315491386025343</v>
       </c>
       <c r="AW3">
-        <v>-5.1833344902819078</v>
+        <v>-5.1833011602818999</v>
       </c>
       <c r="AX3">
-        <v>-35.789638553170903</v>
+        <v>-31.616371883170871</v>
       </c>
       <c r="AY3">
-        <v>-19.646467785004944</v>
+        <v>22.773498884995078</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.1020647465745554</v>
+        <v>12.010420846750236</v>
       </c>
       <c r="C2">
-        <v>-1.080861215499425</v>
+        <v>-1.6054758133320206</v>
       </c>
       <c r="D2">
-        <v>-4.6964853217955067</v>
+        <v>0.26728541516976634</v>
       </c>
       <c r="E2">
-        <v>-15.29466225858846</v>
+        <v>-0.59600340257532025</v>
       </c>
       <c r="F2">
         <v>-18.177662327422468</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4913575739517313</v>
+        <v>3.4386750814914819</v>
       </c>
       <c r="C3">
-        <v>0.24717812915854154</v>
+        <v>6.8764759246110998</v>
       </c>
       <c r="D3">
-        <v>-0.50382530471654263</v>
+        <v>2.879739537413883</v>
       </c>
       <c r="E3">
-        <v>-19.996290828354091</v>
+        <v>-2.8754784550238242</v>
       </c>
       <c r="F3">
         <v>7.1264061640655996</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2.1020647465745554</v>
+        <v>16.427638310189508</v>
       </c>
       <c r="C2">
-        <v>-1.080861215499425</v>
+        <v>11.112196071503888</v>
       </c>
       <c r="D2">
-        <v>-4.6964853217955067</v>
+        <v>13.420766835774401</v>
       </c>
       <c r="E2">
-        <v>-15.29466225858846</v>
+        <v>-0.25453656396425117</v>
       </c>
       <c r="F2">
         <v>-18.177662327422468</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4913575739517313</v>
+        <v>34.135045502966477</v>
       </c>
       <c r="C3">
-        <v>0.24717812915854154</v>
+        <v>3.4386750814914819</v>
       </c>
       <c r="D3">
-        <v>-0.50382530471654263</v>
+        <v>2.1121570451994671</v>
       </c>
       <c r="E3">
-        <v>-19.996290828354091</v>
+        <v>2.879739537413883</v>
       </c>
       <c r="F3">
         <v>7.1264061640655996</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-2.2114224569656074</v>
+      </c>
+      <c r="C2">
+        <v>-1.0808611806921533</v>
+      </c>
+      <c r="D2">
+        <v>-7.1164840950538775</v>
+      </c>
+      <c r="E2">
+        <v>-14.976041664186369</v>
+      </c>
+      <c r="F2">
+        <v>-18.177662316631626</v>
+      </c>
+      <c r="G2">
+        <v>9.0910014274359696</v>
+      </c>
+      <c r="H2">
+        <v>-5.1857013511721703</v>
+      </c>
+      <c r="I2">
+        <v>6.4475530701227228</v>
+      </c>
+      <c r="J2">
+        <v>3.3122538213065837</v>
+      </c>
+      <c r="K2">
+        <v>4.6107894865273522</v>
+      </c>
+      <c r="L2">
+        <v>5.7030046699042458</v>
+      </c>
+      <c r="M2">
+        <v>-2.6220691698703149</v>
+      </c>
+      <c r="N2">
         <v>16.427638310189508</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.112196071503888</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-2.4083243640580747</v>
+      </c>
+      <c r="Q2">
+        <v>-10.741871293282514</v>
+      </c>
+      <c r="R2">
+        <v>-1.6054758133320206</v>
+      </c>
+      <c r="S2">
+        <v>7.3457874667578267</v>
+      </c>
+      <c r="T2">
+        <v>-8.2988878597770395</v>
+      </c>
+      <c r="U2">
+        <v>7.1161322831789562</v>
+      </c>
+      <c r="V2">
+        <v>-10.200434922808427</v>
+      </c>
+      <c r="W2">
+        <v>10.581323468471084</v>
+      </c>
+      <c r="X2">
+        <v>-2.8315824138890093</v>
+      </c>
+      <c r="Y2">
+        <v>-3.1674387775426567</v>
+      </c>
+      <c r="Z2">
+        <v>-24.0523823158521</v>
+      </c>
+      <c r="AA2">
+        <v>8.6674182212369857</v>
+      </c>
+      <c r="AB2">
+        <v>14.300911490975608</v>
+      </c>
+      <c r="AC2">
+        <v>4.4166182645385277</v>
+      </c>
+      <c r="AD2">
+        <v>-3.018782817714964</v>
+      </c>
+      <c r="AE2">
+        <v>-35.343408198054419</v>
+      </c>
+      <c r="AF2">
+        <v>-3.5830940910310005</v>
+      </c>
+      <c r="AG2">
+        <v>1.0093783482194851</v>
+      </c>
+      <c r="AH2">
+        <v>-3.7039810066769689</v>
+      </c>
+      <c r="AI2">
+        <v>37.132189907587417</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.9046151749086135</v>
+      </c>
+      <c r="AK2">
+        <v>-1.4543261163176169</v>
+      </c>
+      <c r="AL2">
+        <v>-9.827420203399754</v>
+      </c>
+      <c r="AM2">
         <v>13.420766835774401</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>-0.25453656396425117</v>
       </c>
-      <c r="F2">
-        <v>-18.177662327422468</v>
-      </c>
-      <c r="G2">
-        <v>9.0910013724058558</v>
-      </c>
-      <c r="H2">
-        <v>-5.4718492736509745</v>
-      </c>
-      <c r="I2">
-        <v>6.6655891397200548</v>
-      </c>
-      <c r="J2">
-        <v>3.4837363962776493</v>
-      </c>
-      <c r="K2">
-        <v>5.5881645181485737</v>
-      </c>
-      <c r="L2">
-        <v>5.5099449984513171</v>
-      </c>
-      <c r="M2">
-        <v>-2.6220691831500744</v>
-      </c>
-      <c r="N2">
-        <v>16.312877614506078</v>
-      </c>
-      <c r="O2">
-        <v>12.010420836953642</v>
-      </c>
-      <c r="P2">
-        <v>-2.4083244232698462</v>
-      </c>
-      <c r="Q2">
-        <v>-10.741871334995011</v>
-      </c>
-      <c r="R2">
-        <v>-1.6054758550088479</v>
-      </c>
-      <c r="S2">
-        <v>6.8577232171728042</v>
-      </c>
-      <c r="T2">
-        <v>-8.2988878824880601</v>
-      </c>
-      <c r="U2">
-        <v>7.0240600338331518</v>
-      </c>
-      <c r="V2">
-        <v>-9.4640261604967577</v>
-      </c>
-      <c r="W2">
-        <v>14.1352322801105</v>
-      </c>
-      <c r="X2">
-        <v>-2.2350724878755557</v>
-      </c>
-      <c r="Y2">
-        <v>-3.1655953262337562</v>
-      </c>
-      <c r="Z2">
-        <v>-24.052382314189444</v>
-      </c>
-      <c r="AA2">
-        <v>8.8888465457147845</v>
-      </c>
-      <c r="AB2">
-        <v>14.300911452093388</v>
-      </c>
-      <c r="AC2">
-        <v>5.5673419980340952</v>
-      </c>
-      <c r="AD2">
-        <v>-2.8681948789550233</v>
-      </c>
-      <c r="AE2">
-        <v>-35.343408219552714</v>
-      </c>
-      <c r="AF2">
-        <v>-3.5830941161042063</v>
-      </c>
-      <c r="AG2">
-        <v>0.98766891477569629</v>
-      </c>
-      <c r="AH2">
-        <v>-2.0129343234435026</v>
-      </c>
-      <c r="AI2">
-        <v>37.179250001812335</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.0912179305201732</v>
-      </c>
-      <c r="AK2">
-        <v>-0.4255147876105525</v>
-      </c>
-      <c r="AL2">
-        <v>-9.8274201975558526</v>
-      </c>
-      <c r="AM2">
-        <v>13.273239075383856</v>
-      </c>
-      <c r="AN2">
-        <v>0.26728541845807285</v>
-      </c>
       <c r="AO2">
-        <v>-8.5986724787804576</v>
+        <v>-8.5986724566755868</v>
       </c>
       <c r="AP2">
-        <v>1.1266791840882604</v>
+        <v>1.1266792297053598</v>
       </c>
       <c r="AQ2">
-        <v>-0.59600343001918077</v>
+        <v>-0.59600340257532025</v>
       </c>
       <c r="AR2">
-        <v>1.1216735641274624</v>
+        <v>0.72617389053590387</v>
       </c>
       <c r="AS2">
-        <v>-1.4724073641455107</v>
+        <v>-1.4724073400497844</v>
       </c>
       <c r="AT2">
-        <v>-1.9206874071514335</v>
+        <v>-2.624857159841909</v>
       </c>
       <c r="AU2">
-        <v>1.124612803140792</v>
+        <v>-1.4194909783775529</v>
       </c>
       <c r="AV2">
-        <v>-3.8382106518237151</v>
+        <v>-6.9323495407687119</v>
       </c>
       <c r="AW2">
-        <v>-2.2498000034361922</v>
+        <v>-3.6272699378520201</v>
       </c>
       <c r="AX2">
-        <v>-6.5180636736713495</v>
+        <v>-6.5559927558965683</v>
       </c>
       <c r="AY2">
-        <v>3.0446110014650571</v>
+        <v>3.0446110092689622</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.4913575835002035</v>
+      </c>
+      <c r="C3">
+        <v>0.70571543411988102</v>
+      </c>
+      <c r="D3">
+        <v>-0.5038252661138074</v>
+      </c>
+      <c r="E3">
+        <v>-19.996290831749974</v>
+      </c>
+      <c r="F3">
+        <v>7.0727808829191332</v>
+      </c>
+      <c r="G3">
+        <v>0.6689909808838479</v>
+      </c>
+      <c r="H3">
+        <v>2.0811374711191775</v>
+      </c>
+      <c r="I3">
+        <v>1.2403703399167227</v>
+      </c>
+      <c r="J3">
+        <v>9.8998881389445899</v>
+      </c>
+      <c r="K3">
+        <v>29.04409643144173</v>
+      </c>
+      <c r="L3">
+        <v>25.062526449431516</v>
+      </c>
+      <c r="M3">
+        <v>-6.5220198252150112</v>
+      </c>
+      <c r="N3">
         <v>34.135045502966477</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.4386750814914819</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-33.461513231776991</v>
+      </c>
+      <c r="Q3">
+        <v>-5.3235203592553546</v>
+      </c>
+      <c r="R3">
+        <v>4.4687764298834622</v>
+      </c>
+      <c r="S3">
+        <v>7.9915298309595357</v>
+      </c>
+      <c r="T3">
+        <v>8.7502635805939804</v>
+      </c>
+      <c r="U3">
+        <v>-5.6781467130223433</v>
+      </c>
+      <c r="V3">
+        <v>8.6004094504896784</v>
+      </c>
+      <c r="W3">
+        <v>1.1573346630251251</v>
+      </c>
+      <c r="X3">
+        <v>10.782384036656012</v>
+      </c>
+      <c r="Y3">
+        <v>32.064760159691915</v>
+      </c>
+      <c r="Z3">
+        <v>-1.2246771598899926</v>
+      </c>
+      <c r="AA3">
+        <v>-0.57596131708601206</v>
+      </c>
+      <c r="AB3">
+        <v>-1.7339595248678705</v>
+      </c>
+      <c r="AC3">
+        <v>1.0414123153460082</v>
+      </c>
+      <c r="AD3">
+        <v>-14.715546505205538</v>
+      </c>
+      <c r="AE3">
+        <v>-6.7496185164846452</v>
+      </c>
+      <c r="AF3">
+        <v>-0.44628131115442216</v>
+      </c>
+      <c r="AG3">
+        <v>10.335150031506643</v>
+      </c>
+      <c r="AH3">
+        <v>8.2625844684655476</v>
+      </c>
+      <c r="AI3">
+        <v>-0.82867184069542077</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.15407576881803209</v>
+      </c>
+      <c r="AK3">
+        <v>20.754553769577996</v>
+      </c>
+      <c r="AL3">
+        <v>-2.7420055714916032</v>
+      </c>
+      <c r="AM3">
         <v>2.1121570451994671</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.879739537413883</v>
       </c>
-      <c r="F3">
-        <v>7.1264061640655996</v>
-      </c>
-      <c r="G3">
-        <v>0.37500756015006687</v>
-      </c>
-      <c r="H3">
-        <v>2.0811374318766269</v>
-      </c>
-      <c r="I3">
-        <v>1.2403703708866658</v>
-      </c>
-      <c r="J3">
-        <v>9.8998881331798572</v>
-      </c>
-      <c r="K3">
-        <v>29.044096429012129</v>
-      </c>
-      <c r="L3">
-        <v>25.062526451387711</v>
-      </c>
-      <c r="M3">
-        <v>-4.9239666190361504</v>
-      </c>
-      <c r="N3">
-        <v>34.135045505270455</v>
-      </c>
-      <c r="O3">
-        <v>3.4386750783412765</v>
-      </c>
-      <c r="P3">
-        <v>-33.066795399606974</v>
-      </c>
-      <c r="Q3">
-        <v>-5.1905660441207999</v>
-      </c>
-      <c r="R3">
-        <v>6.8764758816178073</v>
-      </c>
-      <c r="S3">
-        <v>7.9915298277734337</v>
-      </c>
-      <c r="T3">
-        <v>8.7356559033466397</v>
-      </c>
-      <c r="U3">
-        <v>-5.6781467129966643</v>
-      </c>
-      <c r="V3">
-        <v>8.6004094450114792</v>
-      </c>
-      <c r="W3">
-        <v>1.1573345070240322</v>
-      </c>
-      <c r="X3">
-        <v>10.782384068887026</v>
-      </c>
-      <c r="Y3">
-        <v>32.064760129038163</v>
-      </c>
-      <c r="Z3">
-        <v>-1.108194423520402</v>
-      </c>
-      <c r="AA3">
-        <v>-0.57596138406333353</v>
-      </c>
-      <c r="AB3">
-        <v>-0.25953607093312314</v>
-      </c>
-      <c r="AC3">
-        <v>1.0414123007899718</v>
-      </c>
-      <c r="AD3">
-        <v>-14.715546537854522</v>
-      </c>
-      <c r="AE3">
-        <v>-5.9717333498034293</v>
-      </c>
-      <c r="AF3">
-        <v>0.12633493950013985</v>
-      </c>
-      <c r="AG3">
-        <v>10.335150013764704</v>
-      </c>
-      <c r="AH3">
-        <v>8.2625844251309104</v>
-      </c>
-      <c r="AI3">
-        <v>-0.82867183638276742</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.15407576155374159</v>
-      </c>
-      <c r="AK3">
-        <v>20.754553781360784</v>
-      </c>
-      <c r="AL3">
-        <v>-1.215465797175284</v>
-      </c>
-      <c r="AM3">
-        <v>2.1121570291838054</v>
-      </c>
-      <c r="AN3">
-        <v>2.8797395471411846</v>
-      </c>
       <c r="AO3">
-        <v>19.983476058626678</v>
+        <v>19.354772718921538</v>
       </c>
       <c r="AP3">
-        <v>-10.666053095458551</v>
+        <v>-10.830038934497196</v>
       </c>
       <c r="AQ3">
-        <v>-2.8754785035741008</v>
+        <v>-5.8337590266512791</v>
       </c>
       <c r="AR3">
-        <v>-3.0253145026090067</v>
+        <v>-3.0253145165086721</v>
       </c>
       <c r="AS3">
-        <v>1.8465789475344252</v>
+        <v>1.2893329875769268</v>
       </c>
       <c r="AT3">
-        <v>-3.4123392837873752</v>
+        <v>-3.4123392708787748</v>
       </c>
       <c r="AU3">
-        <v>-1.0076190487337158</v>
+        <v>-1.0076190490287615</v>
       </c>
       <c r="AV3">
-        <v>-1.4396322870090614</v>
+        <v>-1.439632270585065</v>
       </c>
       <c r="AW3">
-        <v>-5.1833011743710813</v>
+        <v>-5.1833011602818999</v>
       </c>
       <c r="AX3">
-        <v>-31.616371903941399</v>
+        <v>-31.616371883170871</v>
       </c>
       <c r="AY3">
-        <v>22.773498876089221</v>
+        <v>22.762278532836163</v>
       </c>
     </row>
   </sheetData>
